--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F9D97-46A5-4391-A23C-93EAFB1F3529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AA520-A181-4DFA-ADEF-E622FF9AE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -384,6 +384,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,33 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,11 +461,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,54 +868,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1360,54 +1360,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1850,54 +1850,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2339,54 +2339,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2886,13 +2886,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="57">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="24">
         <v>53</v>
       </c>
     </row>
@@ -2974,13 +2974,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="57">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
     </row>
@@ -3062,13 +3062,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="57">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3249,10 +3249,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="57">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AQ24" sqref="AQ24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3328,330 +3328,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30">
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="33">
+        <v>2</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40">
         <v>4</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="27">
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="30">
         <v>5</v>
       </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="24">
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="27">
         <v>6</v>
       </c>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="24">
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="27">
         <v>7</v>
       </c>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="24">
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="29"/>
+      <c r="CI2" s="27">
         <v>8</v>
       </c>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="26"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="29"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="42">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="42">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="42">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -3959,10 +3959,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="S5" s="17">
         <v>1</v>
@@ -4013,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W5" s="15">
         <v>1</v>
@@ -4264,10 +4264,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -4300,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="15">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>0.02</v>
       </c>
       <c r="AN6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AO6" s="15">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>0.02</v>
       </c>
       <c r="AZ6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="BA6" s="15">
         <v>1</v>
@@ -5432,160 +5432,160 @@
       </c>
     </row>
     <row r="10" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="57">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="58">
-        <v>1</v>
-      </c>
-      <c r="D10" s="58">
-        <v>1</v>
-      </c>
-      <c r="E10" s="59">
-        <v>1</v>
-      </c>
-      <c r="F10" s="58">
-        <v>1</v>
-      </c>
-      <c r="G10" s="58">
-        <v>1</v>
-      </c>
-      <c r="H10" s="58">
-        <v>1</v>
-      </c>
-      <c r="I10" s="58">
-        <v>1</v>
-      </c>
-      <c r="J10" s="58">
-        <v>1</v>
-      </c>
-      <c r="K10" s="58">
-        <v>1</v>
-      </c>
-      <c r="L10" s="58">
-        <v>1</v>
-      </c>
-      <c r="M10" s="58">
-        <v>1</v>
-      </c>
-      <c r="N10" s="58">
-        <v>1</v>
-      </c>
-      <c r="O10" s="58">
-        <v>1</v>
-      </c>
-      <c r="P10" s="58">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="58">
-        <v>1</v>
-      </c>
-      <c r="R10" s="58">
-        <v>1</v>
-      </c>
-      <c r="S10" s="58">
-        <v>1</v>
-      </c>
-      <c r="T10" s="58">
-        <v>1</v>
-      </c>
-      <c r="U10" s="58">
-        <v>1</v>
-      </c>
-      <c r="V10" s="58">
-        <v>1</v>
-      </c>
-      <c r="W10" s="58">
-        <v>1</v>
-      </c>
-      <c r="X10" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="59">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="58">
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="25">
+        <v>1</v>
+      </c>
+      <c r="L10" s="25">
+        <v>1</v>
+      </c>
+      <c r="M10" s="25">
+        <v>1</v>
+      </c>
+      <c r="N10" s="25">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>1</v>
+      </c>
+      <c r="P10" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>1</v>
+      </c>
+      <c r="R10" s="25">
+        <v>1</v>
+      </c>
+      <c r="S10" s="25">
+        <v>1</v>
+      </c>
+      <c r="T10" s="25">
+        <v>1</v>
+      </c>
+      <c r="U10" s="25">
+        <v>1</v>
+      </c>
+      <c r="V10" s="25">
+        <v>1</v>
+      </c>
+      <c r="W10" s="25">
+        <v>1</v>
+      </c>
+      <c r="X10" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="25">
         <v>0</v>
       </c>
       <c r="BA10" s="15">
@@ -5729,6 +5729,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5744,31 +5769,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5778,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="CJ9" sqref="CJ9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5803,330 +5803,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30">
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="33">
+        <v>2</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40">
         <v>4</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="27">
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="30">
         <v>5</v>
       </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="24">
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="27">
         <v>6</v>
       </c>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="24">
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="27">
         <v>7</v>
       </c>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="24">
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="29"/>
+      <c r="CI2" s="27">
         <v>8</v>
       </c>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="26"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="29"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="42">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="42">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="42">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB9" s="9">
         <v>0</v>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="9">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AQ9" s="9">
         <v>0</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="9">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AT9" s="9">
         <v>0</v>
@@ -7907,10 +7907,10 @@
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A10" s="57">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="9">
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -7977,13 +7977,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="9">
         <v>0</v>
@@ -7995,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="AD10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="11">
         <v>0</v>
@@ -8204,15 +8204,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8229,6 +8235,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BJ6" sqref="BJ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="33">
+        <v>2</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="30">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="27">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="27">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="29"/>
+      <c r="CI2" s="27">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="29"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
+        <v>4</v>
+      </c>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="57">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="57">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="57">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="59"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -8244,1506 +9750,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30">
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="27">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="24">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="24">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="24">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="26"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40"/>
-      <c r="BS3" s="40"/>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40"/>
-      <c r="CK3" s="40"/>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40"/>
-      <c r="CN3" s="40"/>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40"/>
-      <c r="CQ3" s="40"/>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="43"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="R5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="S5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AZ5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>9.4E-2</v>
-      </c>
-      <c r="S6" s="9">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="AZ6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.109</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9760,21 +9766,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9828,54 +9828,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10318,54 +10318,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10808,54 +10808,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="33">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="27">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="30">
         <v>5</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="24">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="27">
         <v>6</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="27">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AA520-A181-4DFA-ADEF-E622FF9AE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9849B864-A13E-48F9-B9B0-E5DD1372C907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -437,6 +437,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,33 +486,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3446,212 +3446,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5729,6 +5729,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5744,31 +5769,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5921,212 +5921,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8204,21 +8204,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8235,15 +8229,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8388,166 +8388,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="57">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="57">
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="57">
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="46"/>
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="59"/>
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="46"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9735,21 +9735,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9766,15 +9760,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10307,8 +10307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10480,7 +10480,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -10492,7 +10492,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4" s="9">
         <v>25</v>
@@ -10513,7 +10513,7 @@
         <v>100</v>
       </c>
       <c r="O4" s="9">
-        <v>100</v>
+        <v>415</v>
       </c>
       <c r="P4" s="9">
         <v>60</v>
@@ -10525,7 +10525,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="9">
-        <v>100</v>
+        <v>415</v>
       </c>
       <c r="T4" s="15">
         <v>100</v>
@@ -10582,7 +10582,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15">
         <v>100</v>
@@ -10594,7 +10594,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I5" s="9">
         <v>25</v>
@@ -10615,19 +10615,19 @@
         <v>100</v>
       </c>
       <c r="O5" s="9">
-        <v>100</v>
+        <v>415</v>
       </c>
       <c r="P5" s="9">
         <v>60</v>
       </c>
       <c r="Q5" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R5" s="15">
         <v>100</v>
       </c>
       <c r="S5" s="9">
-        <v>100</v>
+        <v>415</v>
       </c>
       <c r="T5" s="15">
         <v>100</v>
@@ -10723,7 +10723,7 @@
         <v>60</v>
       </c>
       <c r="Q6" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R6" s="15">
         <v>100</v>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9849B864-A13E-48F9-B9B0-E5DD1372C907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0C874-0066-4F5D-912D-EEC368CD4743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -437,33 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,6 +459,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2905,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3446,212 +3446,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4088,10 +4088,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="15">
         <v>1</v>
@@ -5729,6 +5729,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5744,31 +5769,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5778,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AZ10" sqref="AZ10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5921,212 +5921,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7654,13 +7654,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -7681,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="9">
         <v>1000</v>
@@ -7699,13 +7699,13 @@
         <v>0</v>
       </c>
       <c r="AD9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="11">
         <v>0</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -7977,13 +7977,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="9">
         <v>0</v>
@@ -7995,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="AD10" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="11">
         <v>0</v>
@@ -8204,15 +8204,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8229,21 +8235,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8388,166 +8388,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="44">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="44">
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45"/>
-      <c r="CH3" s="46"/>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="44">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="46"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="59"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9735,15 +9735,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9760,21 +9766,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10307,8 +10307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0C874-0066-4F5D-912D-EEC368CD4743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4675B365-B3AD-4280-B3F4-8466E4B91612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-324" yWindow="4740" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -437,6 +437,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,33 +486,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AD5" s="15" t="s">
         <v>10</v>
@@ -1318,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="15" t="s">
         <v>10</v>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,8 +1698,8 @@
       <c r="AB5" s="9">
         <v>1188</v>
       </c>
-      <c r="AC5" s="9">
-        <v>1</v>
+      <c r="AC5" s="17">
+        <v>4917</v>
       </c>
       <c r="AD5" s="15">
         <v>1</v>
@@ -1809,8 +1809,8 @@
       <c r="AE6" s="9">
         <v>1188</v>
       </c>
-      <c r="AF6" s="9">
-        <v>1288</v>
+      <c r="AF6" s="17">
+        <v>4917</v>
       </c>
       <c r="AG6" s="15">
         <v>1</v>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,7 +2189,7 @@
         <v>394.1</v>
       </c>
       <c r="AC5" s="9">
-        <v>400</v>
+        <v>499.6</v>
       </c>
       <c r="AD5" s="15">
         <v>400</v>
@@ -2300,7 +2300,7 @@
         <v>394.1</v>
       </c>
       <c r="AF6" s="9">
-        <v>394.1</v>
+        <v>499.6</v>
       </c>
       <c r="AG6" s="15">
         <v>400</v>
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,7 +2678,7 @@
         <v>0.97</v>
       </c>
       <c r="AC5" s="9">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="15">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>0.97</v>
       </c>
       <c r="AF6" s="9">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="AG6" s="15">
         <v>1</v>
@@ -2905,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -2994,7 +2994,7 @@
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="BY5" sqref="BY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3446,212 +3446,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -3959,10 +3959,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -4013,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W5" s="15">
         <v>1</v>
@@ -4088,9 +4088,9 @@
         <v>1</v>
       </c>
       <c r="AT5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="AU5" s="15">
         <v>1</v>
       </c>
       <c r="AV5" s="15">
@@ -4195,8 +4195,8 @@
       <c r="CC5" s="9">
         <v>1</v>
       </c>
-      <c r="CD5" s="9">
-        <v>1</v>
+      <c r="CD5" s="17">
+        <v>0.99</v>
       </c>
       <c r="CE5" s="15">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="CN5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="CO5" s="9">
         <v>1</v>
@@ -4386,8 +4386,8 @@
       <c r="AT6" s="17">
         <v>0.6</v>
       </c>
-      <c r="AU6" s="17">
-        <v>0.62</v>
+      <c r="AU6" s="15">
+        <v>1</v>
       </c>
       <c r="AV6" s="15">
         <v>1</v>
@@ -4491,8 +4491,8 @@
       <c r="CC6" s="9">
         <v>1</v>
       </c>
-      <c r="CD6" s="9">
-        <v>1</v>
+      <c r="CD6" s="17">
+        <v>0.6</v>
       </c>
       <c r="CE6" s="15">
         <v>1</v>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="CN6" s="17">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="CO6" s="9">
         <v>1</v>
@@ -4551,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" s="17">
         <v>0.21</v>
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V7" s="17">
         <v>0.21</v>
@@ -4680,10 +4680,10 @@
         <v>0.1</v>
       </c>
       <c r="AT7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="17">
-        <v>0.21</v>
+        <v>0.01</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>1</v>
       </c>
       <c r="AV7" s="15">
         <v>1</v>
@@ -4787,8 +4787,8 @@
       <c r="CC7" s="9">
         <v>1</v>
       </c>
-      <c r="CD7" s="9">
-        <v>1</v>
+      <c r="CD7" s="17">
+        <v>0.01</v>
       </c>
       <c r="CE7" s="15">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="CN7" s="17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="CO7" s="9">
         <v>1</v>
@@ -4978,114 +4978,114 @@
       <c r="AT8" s="17">
         <v>0.5</v>
       </c>
-      <c r="AU8" s="17">
+      <c r="AU8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="17">
         <v>0.5</v>
       </c>
-      <c r="AV8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="17">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="9">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="17">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="9">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="9">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="17">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="9">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="9">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="9">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="15">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="9">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="9">
-        <v>1</v>
-      </c>
       <c r="CE8" s="15">
         <v>1</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="CN8" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="CO8" s="9">
         <v>1</v>
@@ -5274,8 +5274,8 @@
       <c r="AT9" s="17">
         <v>0</v>
       </c>
-      <c r="AU9" s="17">
-        <v>0</v>
+      <c r="AU9" s="15">
+        <v>1</v>
       </c>
       <c r="AV9" s="15">
         <v>1</v>
@@ -5379,8 +5379,8 @@
       <c r="CC9" s="9">
         <v>1</v>
       </c>
-      <c r="CD9" s="9">
-        <v>1</v>
+      <c r="CD9" s="17">
+        <v>0</v>
       </c>
       <c r="CE9" s="15">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="CN9" s="17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="CO9" s="9">
         <v>1</v>
@@ -5675,7 +5675,7 @@
       <c r="CC10" s="9">
         <v>1</v>
       </c>
-      <c r="CD10" s="9">
+      <c r="CD10" s="25">
         <v>1</v>
       </c>
       <c r="CE10" s="9">
@@ -5705,7 +5705,7 @@
       <c r="CM10" s="9">
         <v>1</v>
       </c>
-      <c r="CN10" s="9">
+      <c r="CN10" s="25">
         <v>1</v>
       </c>
       <c r="CO10" s="9">
@@ -5729,6 +5729,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5744,31 +5769,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5921,212 +5921,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8204,21 +8204,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8235,15 +8229,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8253,8 +8253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BJ6" sqref="BJ6"/>
+    <sheetView topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="CD5" sqref="CD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8388,166 +8388,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="57">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="57">
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="57">
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="46"/>
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="59"/>
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="46"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="CD5" s="9">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="CE5" s="15">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="9">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="9">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="9">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="9">
         <v>0</v>
@@ -9735,21 +9735,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9766,15 +9760,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9784,8 +9784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10052,8 +10052,8 @@
       <c r="X4" s="9">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
-        <v>0</v>
+      <c r="Y4" s="15">
+        <v>999999</v>
       </c>
       <c r="Z4" s="15">
         <v>999999</v>
@@ -10064,8 +10064,8 @@
       <c r="AB4" s="9">
         <v>0</v>
       </c>
-      <c r="AC4" s="9">
-        <v>0</v>
+      <c r="AC4" s="15">
+        <v>999999</v>
       </c>
       <c r="AD4" s="15">
         <v>999999</v>
@@ -10076,8 +10076,8 @@
       <c r="AF4" s="9">
         <v>0</v>
       </c>
-      <c r="AG4" s="9">
-        <v>0</v>
+      <c r="AG4" s="15">
+        <v>999999</v>
       </c>
       <c r="AH4" s="15">
         <v>999999</v>
@@ -10166,8 +10166,8 @@
       <c r="AB5" s="9">
         <v>1000000</v>
       </c>
-      <c r="AC5" s="9">
-        <v>0</v>
+      <c r="AC5" s="17">
+        <v>311000</v>
       </c>
       <c r="AD5" s="15">
         <v>999999</v>
@@ -10185,7 +10185,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -10277,8 +10277,8 @@
       <c r="AE6" s="9">
         <v>1000000</v>
       </c>
-      <c r="AF6" s="9">
-        <v>140000</v>
+      <c r="AF6" s="17">
+        <v>311000</v>
       </c>
       <c r="AG6" s="15">
         <v>999999</v>
@@ -10307,8 +10307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10768,7 +10768,7 @@
         <v>60</v>
       </c>
       <c r="AF6" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AG6" s="15">
         <v>25</v>
@@ -10797,8 +10797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11032,8 +11032,8 @@
       <c r="X4" s="9">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
-        <v>0</v>
+      <c r="Y4" s="15">
+        <v>999999</v>
       </c>
       <c r="Z4" s="15">
         <v>999999</v>
@@ -11146,8 +11146,8 @@
       <c r="AB5" s="9">
         <v>40000</v>
       </c>
-      <c r="AC5" s="9">
-        <v>0</v>
+      <c r="AC5" s="17">
+        <v>311000</v>
       </c>
       <c r="AD5" s="15">
         <v>999999</v>
@@ -11257,8 +11257,8 @@
       <c r="AE6" s="9">
         <v>40000</v>
       </c>
-      <c r="AF6" s="9">
-        <v>140000</v>
+      <c r="AF6" s="17">
+        <v>311000</v>
       </c>
       <c r="AG6" s="15">
         <v>999999</v>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4675B365-B3AD-4280-B3F4-8466E4B91612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA2833-F46D-4AE8-85D4-6D5F7E14E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-324" yWindow="4740" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32580" yWindow="5328" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="39">
   <si>
     <t>j</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>EMPTY</t>
-  </si>
-  <si>
-    <t>Falling film evaporation</t>
   </si>
   <si>
     <t>Vaccuum distillation</t>
@@ -437,33 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,6 +456,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -829,7 +826,7 @@
   <dimension ref="A2:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +863,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1039,43 +1036,43 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>10</v>
@@ -1087,37 +1084,37 @@
         <v>10</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>34</v>
+      <c r="Y4" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="Z4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="AH4" s="15" t="s">
         <v>10</v>
@@ -1132,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -1141,34 +1138,34 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>8</v>
@@ -1177,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>10</v>
@@ -1189,22 +1186,22 @@
         <v>10</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>8</v>
@@ -1213,13 +1210,13 @@
         <v>10</v>
       </c>
       <c r="AE5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AF5" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="AG5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>10</v>
@@ -1243,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -1252,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>10</v>
@@ -1270,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>9</v>
@@ -1303,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="15" t="s">
         <v>10</v>
@@ -1315,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>8</v>
@@ -1349,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1355,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -1687,7 +1684,7 @@
         <v>128</v>
       </c>
       <c r="Y5" s="9">
-        <v>1288</v>
+        <v>7492</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
@@ -1839,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,7 +1845,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -2177,7 +2174,7 @@
         <v>394.1</v>
       </c>
       <c r="Y5" s="9">
-        <v>394.1</v>
+        <v>541.70000000000005</v>
       </c>
       <c r="Z5" s="15">
         <v>400</v>
@@ -2328,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2337,7 +2334,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -2666,7 +2663,7 @@
         <v>0.53</v>
       </c>
       <c r="Y5" s="9">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
@@ -2890,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="24">
         <v>53</v>
@@ -2978,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="24">
         <v>2</v>
@@ -3066,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="24">
         <v>0</v>
@@ -3089,7 +3086,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3099,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9">
         <v>50</v>
@@ -3110,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>35</v>
@@ -3121,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9">
         <v>0.27</v>
@@ -3144,7 +3141,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -3152,23 +3149,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3176,7 +3173,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3184,7 +3181,7 @@
     </row>
     <row r="32" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3270,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -3282,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3298,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3310,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="BY5" sqref="BY5"/>
+    <sheetView topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BS26" sqref="BS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,7 +3323,7 @@
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -3446,212 +3443,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5436,7 +5433,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
@@ -5729,6 +5726,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5744,31 +5766,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5801,7 +5798,7 @@
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -5921,212 +5918,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7911,7 +7908,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
@@ -8204,15 +8201,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8229,21 +8232,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8268,7 +8265,7 @@
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -8388,170 +8385,170 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="44">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="44">
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45"/>
-      <c r="CH3" s="46"/>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="44">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="46"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="59"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1</v>
@@ -8850,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9">
         <v>2.8000000000000001E-2</v>
@@ -9146,7 +9143,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -9442,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -9735,15 +9732,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9760,21 +9763,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9784,8 +9781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9826,7 +9823,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -10316,7 +10313,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -10797,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10806,7 +10803,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="34">
         <v>1</v>
@@ -11135,7 +11132,7 @@
         <v>21000</v>
       </c>
       <c r="Y5" s="9">
-        <v>140000</v>
+        <v>21800</v>
       </c>
       <c r="Z5" s="15">
         <v>999999</v>
@@ -11143,8 +11140,8 @@
       <c r="AA5" s="9">
         <v>0</v>
       </c>
-      <c r="AB5" s="9">
-        <v>40000</v>
+      <c r="AB5" s="19">
+        <v>20036</v>
       </c>
       <c r="AC5" s="17">
         <v>311000</v>
@@ -11254,8 +11251,8 @@
       <c r="AD6" s="15">
         <v>999999</v>
       </c>
-      <c r="AE6" s="9">
-        <v>40000</v>
+      <c r="AE6" s="19">
+        <v>20036</v>
       </c>
       <c r="AF6" s="17">
         <v>311000</v>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA2833-F46D-4AE8-85D4-6D5F7E14E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2827931-99D6-4C07-8ABE-D3105D35BBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="5328" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="552" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A2:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BS26" sqref="BS26"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BD7" sqref="BD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="AY7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="17">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="15">
         <v>1</v>
@@ -8250,8 +8250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CD5" sqref="CD5"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CK16" sqref="CK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8850,19 +8850,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="D5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="E5" s="15">
         <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="G5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="H5" s="15">
         <v>10</v>
@@ -8886,58 +8886,58 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="P5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="Q5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="R5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="S5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="T5" s="15">
         <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="V5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="W5" s="15">
         <v>10</v>
       </c>
       <c r="X5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="Y5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="Z5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AA5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AB5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AC5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AD5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AE5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AF5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AG5" s="11">
         <v>0</v>
@@ -8958,31 +8958,31 @@
         <v>0</v>
       </c>
       <c r="AM5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AN5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AO5" s="15">
         <v>10</v>
       </c>
       <c r="AP5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AQ5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AR5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AS5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AT5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AU5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AV5" s="15">
         <v>0</v>
@@ -8994,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AZ5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="BA5" s="15">
         <v>10</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="BM5" s="15">
         <v>0</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="BP5" s="15">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="BS5" s="15">
         <v>0</v>
@@ -9072,13 +9072,13 @@
         <v>0</v>
       </c>
       <c r="BY5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="BZ5" s="9">
         <v>0</v>
       </c>
       <c r="CA5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="CB5" s="15">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="CD5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="CE5" s="15">
         <v>0</v>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="CK5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="CL5" s="9">
         <v>0</v>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="CN5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="CO5" s="9">
         <v>0</v>
@@ -10794,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2827931-99D6-4C07-8ABE-D3105D35BBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9659B-9203-4F0E-8F9C-D7A27192A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="552" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -434,6 +434,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,33 +483,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3443,212 +3443,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5726,6 +5726,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5741,31 +5766,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5918,212 +5918,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8201,21 +8201,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8232,15 +8226,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8250,8 +8250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
-      <selection activeCell="CK16" sqref="CK16"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8385,166 +8385,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="57">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="57">
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="57">
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="46"/>
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="59"/>
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="46"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8850,19 +8850,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="D5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="E5" s="15">
         <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H5" s="15">
         <v>10</v>
@@ -8886,58 +8886,58 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Q5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="R5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T5" s="15">
         <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="W5" s="15">
         <v>10</v>
       </c>
       <c r="X5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Y5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Z5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AA5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AB5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AC5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AD5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AE5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AF5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AG5" s="11">
         <v>0</v>
@@ -8958,28 +8958,28 @@
         <v>0</v>
       </c>
       <c r="AM5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AN5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AO5" s="15">
         <v>10</v>
       </c>
       <c r="AP5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AQ5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AR5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AS5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AT5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="AU5" s="9">
         <v>2.7999999999999998E-4</v>
@@ -8994,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AZ5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BA5" s="15">
         <v>10</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BM5" s="15">
         <v>0</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="BP5" s="15">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BS5" s="15">
         <v>0</v>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="BY5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="BZ5" s="9">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="CD5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="CE5" s="15">
         <v>0</v>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="CN5" s="9">
-        <v>2.7999999999999998E-4</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="CO5" s="9">
         <v>0</v>
@@ -9732,21 +9732,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9763,15 +9757,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9659B-9203-4F0E-8F9C-D7A27192A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96729F-EF18-470C-BE4D-D3CBC8CF68FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="1512" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -434,33 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,6 +456,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2814,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,7 +3079,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3443,212 +3443,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5726,6 +5726,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5741,31 +5766,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5918,212 +5918,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8201,15 +8201,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8226,6 +8232,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="33">
+        <v>2</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="37">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="30">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="27">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="27">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="29"/>
+      <c r="CI2" s="27">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="29"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
+        <v>4</v>
+      </c>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="57">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="57">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="57">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="59"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="V5" s="9">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -8241,1506 +9747,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="33">
-        <v>2</v>
-      </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="37">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="30">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="31"/>
-      <c r="BH2" s="31"/>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="27">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="28"/>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="28"/>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="27">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
-      <c r="CA2" s="28"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="29"/>
-      <c r="CI2" s="27">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="28"/>
-      <c r="CL2" s="28"/>
-      <c r="CM2" s="28"/>
-      <c r="CN2" s="28"/>
-      <c r="CO2" s="28"/>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28"/>
-      <c r="CS2" s="28"/>
-      <c r="CT2" s="29"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
-        <v>4</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="44">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="44">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="45"/>
-      <c r="CH3" s="46"/>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="44">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="46"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="R5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="V5" s="9">
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="AZ6" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="AN7" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="AZ7" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9757,21 +9763,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96729F-EF18-470C-BE4D-D3CBC8CF68FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751B2A0-A188-47EC-B144-60371345C87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="1512" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -434,6 +434,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,33 +483,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2814,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3307,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BD7" sqref="BD7"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BU17" sqref="BU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3443,212 +3443,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="CD5" s="17">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="CE5" s="15">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="CN5" s="17">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="CO5" s="9">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="CD6" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="CE6" s="15">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="CN6" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="CO6" s="9">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="CD7" s="17">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="CE7" s="15">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="CN7" s="17">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="CO7" s="9">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="CD9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE9" s="15">
         <v>1</v>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="CN9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO9" s="9">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="CD10" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10" s="9">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="CN10" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO10" s="9">
         <v>1</v>
@@ -5726,6 +5726,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5741,31 +5766,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5918,212 +5918,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8201,21 +8201,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8232,15 +8226,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8250,8 +8250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="CF23" sqref="CF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8385,166 +8385,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="57">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="57">
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="57">
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="46"/>
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="59"/>
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="46"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9732,21 +9732,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9763,15 +9757,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10794,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751B2A0-A188-47EC-B144-60371345C87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC5760-9A27-4650-B0CE-71388A8891CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6444" yWindow="900" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -434,33 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,6 +456,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K13:K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BU17" sqref="BU17"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3443,212 +3443,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5726,6 +5726,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5741,31 +5766,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5776,7 +5776,7 @@
   <dimension ref="A2:CT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5918,212 +5918,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="43">
+      <c r="BM3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43">
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="43">
+      <c r="BP3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43">
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="43">
+      <c r="BS3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="44">
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45">
+      <c r="BU3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="43">
+      <c r="BY3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43">
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="43">
+      <c r="CB3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43">
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="43">
+      <c r="CE3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="44">
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CG3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="46">
+      <c r="CH3" s="59">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="43">
+      <c r="CK3" s="52">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43">
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="43">
+      <c r="CN3" s="52">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43">
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="43">
+      <c r="CQ3" s="52">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="44">
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45">
+      <c r="CS3" s="58">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="46">
+      <c r="CT3" s="59">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8201,15 +8201,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8226,21 +8232,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8385,166 +8385,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
-        <v>2</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49">
-        <v>3</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49">
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54">
         <v>4</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="48">
-        <v>2</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47">
-        <v>3</v>
-      </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="43">
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53">
+        <v>2</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="51">
+        <v>3</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52">
         <v>4</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="59">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="59">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="53">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="52">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="50">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="44">
         <v>4</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="59">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="56">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="47">
         <v>4</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43">
         <v>4</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="44">
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="57">
         <v>4</v>
       </c>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="43">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="44">
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="52">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="57">
         <v>4</v>
       </c>
-      <c r="CG3" s="45"/>
-      <c r="CH3" s="46"/>
-      <c r="CI3" s="43">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="44">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="52">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="52">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="57">
         <v>4</v>
       </c>
-      <c r="CS3" s="45"/>
-      <c r="CT3" s="46"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="59"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9732,15 +9732,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9757,21 +9763,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10795,7 +10795,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_ANGlyc.xlsx
+++ b/SS_dataV_ANGlyc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC5760-9A27-4650-B0CE-71388A8891CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7581341-CFBC-4F47-988D-16F7914DD33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6444" yWindow="900" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32448" yWindow="5940" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -434,6 +434,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,33 +483,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="17">
-        <v>4917</v>
+        <v>4.9169999999999998</v>
       </c>
       <c r="D4" s="9">
         <v>7492</v>
@@ -1534,7 +1534,7 @@
         <v>7492</v>
       </c>
       <c r="I4" s="17">
-        <v>4917</v>
+        <v>4.9169999999999998</v>
       </c>
       <c r="J4" s="9">
         <v>128</v>
@@ -1660,7 +1660,7 @@
         <v>1188</v>
       </c>
       <c r="Q5" s="17">
-        <v>4917</v>
+        <v>4.9169999999999998</v>
       </c>
       <c r="R5" s="15">
         <v>1000</v>
@@ -3443,212 +3443,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5726,6 +5726,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5741,31 +5766,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5918,212 +5918,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="52">
+      <c r="BM3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52">
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="52">
+      <c r="BP3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52">
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="52">
+      <c r="BS3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="57">
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58">
+      <c r="BU3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="59">
+      <c r="BV3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52">
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="52">
+      <c r="BY3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52">
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="52">
+      <c r="CB3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52">
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="52">
+      <c r="CE3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="57">
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58">
+      <c r="CG3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="59">
+      <c r="CH3" s="46">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52">
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="52">
+      <c r="CK3" s="43">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52">
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="52">
+      <c r="CN3" s="43">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52">
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="52">
+      <c r="CQ3" s="43">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="57">
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58">
+      <c r="CS3" s="45">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="59">
+      <c r="CT3" s="46">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -8201,21 +8201,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -8232,15 +8226,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8251,7 +8251,7 @@
   <dimension ref="A2:CT7"/>
   <sheetViews>
     <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="CF23" sqref="CF23"/>
+      <selection activeCell="CA25" sqref="CA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8385,166 +8385,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53">
-        <v>2</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54">
-        <v>3</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>2</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49">
+        <v>3</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52">
-        <v>1</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53">
-        <v>2</v>
-      </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="51">
-        <v>3</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="48">
+        <v>2</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47">
+        <v>3</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="43">
         <v>4</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="50">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="44">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="59">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="53">
         <v>4</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="50">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="47">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="59">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="56">
         <v>4</v>
       </c>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43">
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="52">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52">
         <v>4</v>
       </c>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="57">
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="44">
         <v>4</v>
       </c>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="52">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="57">
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="44">
         <v>4</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="52">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="52">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="57">
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="46"/>
+      <c r="CI3" s="43">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="44">
         <v>4</v>
       </c>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="59"/>
+      <c r="CS3" s="45"/>
+      <c r="CT3" s="46"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9732,21 +9732,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9763,15 +9757,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10794,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
